--- a/2 course/lab325/lab325.xlsx
+++ b/2 course/lab325/lab325.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kekoveca/Documents/MIPT/physics/2 course/lab325/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD26D8F-898E-814E-B643-E6814E801D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB789315-56F7-7C48-B828-3479B326C6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{7D90AC84-6A36-C043-9AB7-0E18354D1E5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>nu_0</t>
   </si>
@@ -59,12 +59,6 @@
     <t>ГнФ</t>
   </si>
   <si>
-    <t>кГц</t>
-  </si>
-  <si>
-    <t>Nu, kHz</t>
-  </si>
-  <si>
     <t>U, mV</t>
   </si>
   <si>
@@ -83,7 +77,16 @@
     <t>Уменьш частоты</t>
   </si>
   <si>
-    <t>R = 100</t>
+    <t>Nu, Hz</t>
+  </si>
+  <si>
+    <t>Гц</t>
+  </si>
+  <si>
+    <t>R = 100 Ом</t>
+  </si>
+  <si>
+    <t>R = 0 Ом</t>
   </si>
 </sst>
 </file>
@@ -126,8 +129,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -450,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA38ABBB-BDCC-CB49-8B6C-951DC891378B}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -513,12 +519,12 @@
         <v>1591.5963711602737</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <f>300/50</f>
@@ -526,45 +532,45 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -773,29 +779,40 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>11</v>
+      <c r="D22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>0.85499999999999998</v>
+        <v>855</v>
       </c>
       <c r="B23" s="1">
         <f>30</f>
@@ -804,17 +821,36 @@
       <c r="C23" s="1">
         <v>22.29</v>
       </c>
+      <c r="D23" s="2">
+        <v>1338</v>
+      </c>
+      <c r="E23" s="2">
+        <v>30</v>
+      </c>
+      <c r="F23" s="2">
+        <v>9.51</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>1140</v>
       </c>
       <c r="B24" s="1">
-        <f>B23+30</f>
+        <f t="shared" ref="B24:B29" si="1">B23+30</f>
         <v>60</v>
       </c>
       <c r="C24" s="1">
         <v>30</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1441</v>
+      </c>
+      <c r="E24" s="2">
+        <f>E23+30</f>
+        <v>60</v>
+      </c>
+      <c r="F24" s="2">
+        <v>10.71</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -822,11 +858,21 @@
         <v>1266</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" ref="B25:B31" si="1">B24+30</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="C25" s="1">
         <v>33.729999999999997</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1476</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" ref="E25:E27" si="2">E24+30</f>
+        <v>90</v>
+      </c>
+      <c r="F25" s="2">
+        <v>11.46</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -840,6 +886,16 @@
       <c r="C26" s="1">
         <v>35.92</v>
       </c>
+      <c r="D26" s="2">
+        <v>1497</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="F26" s="2">
+        <v>11.95</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
@@ -852,6 +908,16 @@
       <c r="C27" s="1">
         <v>37.44</v>
       </c>
+      <c r="D27" s="2">
+        <v>1511</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="F27" s="2">
+        <v>12.39</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
@@ -864,17 +930,37 @@
       <c r="C28" s="1">
         <v>38.51</v>
       </c>
+      <c r="D28" s="2">
+        <v>1520</v>
+      </c>
+      <c r="E28" s="2">
+        <f>E27+30</f>
+        <v>180</v>
+      </c>
+      <c r="F28" s="2">
+        <v>12.73</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>1454</v>
       </c>
       <c r="B29" s="1">
-        <f>B28+30</f>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
       <c r="C29" s="1">
         <v>39.31</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1528</v>
+      </c>
+      <c r="E29" s="2">
+        <f>E28+30</f>
+        <v>210</v>
+      </c>
+      <c r="F29" s="2">
+        <v>12.92</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -888,6 +974,16 @@
       <c r="C30" s="1">
         <v>39.54</v>
       </c>
+      <c r="D30" s="2">
+        <v>1535</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" ref="E30" si="3">E29+30</f>
+        <v>240</v>
+      </c>
+      <c r="F30" s="2">
+        <v>12.92</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
@@ -899,6 +995,16 @@
       <c r="C31" s="1">
         <v>39.83</v>
       </c>
+      <c r="D31" s="2">
+        <v>1544</v>
+      </c>
+      <c r="E31" s="2">
+        <f>E30+30</f>
+        <v>270</v>
+      </c>
+      <c r="F31" s="2">
+        <v>12.46</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
@@ -910,8 +1016,17 @@
       <c r="C32" s="1">
         <v>39.97</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" s="1">
+        <v>1556</v>
+      </c>
+      <c r="E32" s="2">
+        <v>288</v>
+      </c>
+      <c r="F32" s="1">
+        <v>10.82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>1506</v>
       </c>
@@ -921,8 +1036,18 @@
       <c r="C33" s="1">
         <v>40.049999999999997</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" s="1">
+        <v>1563</v>
+      </c>
+      <c r="E33" s="1">
+        <f>E31</f>
+        <v>270</v>
+      </c>
+      <c r="F33" s="1">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>1518</v>
       </c>
@@ -932,8 +1057,18 @@
       <c r="C34" s="1">
         <v>40.03</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" s="1">
+        <v>1571</v>
+      </c>
+      <c r="E34" s="1">
+        <f>E33-30</f>
+        <v>240</v>
+      </c>
+      <c r="F34" s="1">
+        <v>8.74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>1551</v>
       </c>
@@ -943,8 +1078,18 @@
       <c r="C35" s="1">
         <v>39.6</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" s="1">
+        <v>1578</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" ref="E35:E41" si="4">E34-30</f>
+        <v>210</v>
+      </c>
+      <c r="F35" s="1">
+        <v>8.3699999999999992</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>1602</v>
       </c>
@@ -954,8 +1099,18 @@
       <c r="C36" s="1">
         <v>39.04</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" s="2">
+        <v>1587</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="F36" s="2">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>1616</v>
       </c>
@@ -965,8 +1120,18 @@
       <c r="C37" s="1">
         <v>39.1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" s="2">
+        <v>1598</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="F37" s="2">
+        <v>8.51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>1637</v>
       </c>
@@ -976,8 +1141,18 @@
       <c r="C38" s="1">
         <v>39.36</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" s="2">
+        <v>1614</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="F38" s="2">
+        <v>8.92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>1646</v>
       </c>
@@ -987,8 +1162,18 @@
       <c r="C39" s="1">
         <v>39.590000000000003</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39" s="2">
+        <v>1642</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="F39" s="2">
+        <v>9.51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>1671</v>
       </c>
@@ -998,8 +1183,18 @@
       <c r="C40" s="1">
         <v>40.1</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40" s="2">
+        <v>1697</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="F40" s="2">
+        <v>10.37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>1686</v>
       </c>
@@ -1009,8 +1204,18 @@
       <c r="C41" s="1">
         <v>40.49</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41" s="2">
+        <v>1926</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="F41" s="2">
+        <v>12.43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>1730</v>
       </c>
@@ -1020,8 +1225,9 @@
       <c r="C42" s="1">
         <v>41.75</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>1906</v>
       </c>
@@ -1031,8 +1237,9 @@
       <c r="C43" s="1">
         <v>47.01</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>2243</v>
       </c>
@@ -1044,6 +1251,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D23:F31">
+    <sortCondition descending="1" ref="D23:D31"/>
+  </sortState>
   <mergeCells count="5">
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:F8"/>
@@ -1052,5 +1262,6 @@
     <mergeCell ref="D21:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>